--- a/convertcsv.xlsx
+++ b/convertcsv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIOS\Ulises\OneDrive\Documentos\ClaseFlutter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A150CE5-824C-4A17-A400-88212B043E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7825543-DB41-40D5-A232-26BBE88F951E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="983">
   <si>
     <t>1</t>
   </si>
@@ -2141,6 +2141,834 @@
   </si>
   <si>
     <t>pok_peso</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/bulbasaur.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/bulbasaur.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/ivysaur.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/ivysaur.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/venusaur.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/venusaur.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/charmander.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/charmander.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/charmeleon.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/charmeleon.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/charizard.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/charizard.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/squirtle.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/squirtle.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/wartortle.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/wartortle.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/blastoise.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/blastoise.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/caterpie.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/caterpie.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/metapod.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/metapod.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/butterfree.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/butterfree.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/weedle.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/weedle.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/kakuna.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/kakuna.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/beedrill.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/beedrill.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/pidgey.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/pidgey.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/pidgeotto.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/pidgeotto.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/pidgeot.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/pidgeot.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/rattata.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/rattata.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/raticate.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/raticate.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/spearow.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/spearow.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/fearow.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/fearow.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/ekans.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/ekans.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/arbok.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/arbok.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/pikachu.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/pikachu.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/raichu.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/raichu.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/sandshrew.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/sandshrew.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/sandslash.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/sandslash.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/nidoran♀.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/nidoran♀.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/nidorina.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/nidorina.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/nidoqueen.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/nidoqueen.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/nidoran♂.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/nidoran♂.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/nidorino.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/nidorino.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/nidoking.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/nidoking.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/clefairy.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/clefairy.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/clefable.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/clefable.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/vulpix.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/vulpix.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/ninetales.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/ninetales.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/jigglypuff.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/jigglypuff.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/wigglytuff.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/wigglytuff.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/zubat.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/zubat.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/golbat.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/golbat.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/oddish.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/oddish.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/gloom.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/gloom.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/vileplume.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/vileplume.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/paras.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/paras.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/parasect.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/parasect.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/venonat.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/venonat.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/venomoth.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/venomoth.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/diglett.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/diglett.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/dugtrio.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/dugtrio.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/meowth.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/meowth.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/persian.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/persian.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/psyduck.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/psyduck.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/golduck.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/golduck.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/mankey.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/mankey.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/primeape.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/primeape.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/growlithe.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/growlithe.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/arcanine.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/arcanine.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/poliwag.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/poliwag.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/poliwhirl.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/poliwhirl.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/poliwrath.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/poliwrath.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/abra.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/abra.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/kadabra.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/kadabra.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/alakazam.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/alakazam.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/machop.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/machop.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/machoke.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/machoke.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/machamp.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/machamp.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/bellsprout.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/bellsprout.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/weepinbell.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/weepinbell.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/victreebel.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/victreebel.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/tentacool.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/tentacool.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/tentacruel.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/tentacruel.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/geodude.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/geodude.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/graveler.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/graveler.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/golem.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/golem.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/ponyta.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/ponyta.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/rapidash.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/rapidash.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/slowpoke.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/slowpoke.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/slowbro.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/slowbro.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/magnemite.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/magnemite.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/magneton.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/magneton.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/farfetch'd.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/farfetch'd.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/doduo.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/doduo.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/dodrio.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/dodrio.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/seel.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/seel.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/dewgong.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/dewgong.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/grimer.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/grimer.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/muk.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/muk.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/shellder.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/shellder.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/cloyster.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/cloyster.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/gastly.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/gastly.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/haunter.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/haunter.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/gengar.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/gengar.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/onix.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/onix.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/drowzee.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/drowzee.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/hypno.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/hypno.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/krabby.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/krabby.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/kingler.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/kingler.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/voltorb.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/voltorb.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/electrode.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/electrode.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/exeggcute.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/exeggcute.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/exeggutor.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/exeggutor.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/cubone.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/cubone.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/marowak.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/marowak.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/hitmonlee.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/hitmonlee.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/hitmonchan.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/hitmonchan.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/lickitung.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/lickitung.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/koffing.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/koffing.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/weezing.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/weezing.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/rhyhorn.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/rhyhorn.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/rhydon.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/rhydon.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/chansey.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/chansey.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/tangela.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/tangela.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/kangaskhan.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/kangaskhan.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/horsea.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/horsea.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/seadra.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/seadra.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/goldeen.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/goldeen.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/seaking.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/seaking.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/staryu.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/staryu.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/starmie.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/starmie.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/mr.-mime.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/mr.-mime.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/artwork/scyther.jpg</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/scyther.gif</t>
+  </si>
+  <si>
+    <t>pok_imgL</t>
+  </si>
+  <si>
+    <t>pok_imgA</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/jynx.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/electabuzz.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/magmar.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/pinsir.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/tauros.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/magikarp.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/gyarados.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/lapras.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/ditto.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/eevee.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/vaporeon.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/jolteon.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/flareon.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/porygon.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/omanyte.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/omastar.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/kabuto.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/kabutops.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/aerodactyl.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/snorlax.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/articuno.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/zapdos.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/moltres.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/dratini.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/dragonair.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/dragonite.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/mewtwo.gif</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/anim/normal/mew.gif</t>
   </si>
 </sst>
 </file>
@@ -2517,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="F432" sqref="F432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2530,11 +3358,13 @@
     <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>701</v>
       </c>
@@ -2551,13 +3381,19 @@
         <v>703</v>
       </c>
       <c r="F1" t="s">
+        <v>953</v>
+      </c>
+      <c r="G1" t="s">
+        <v>954</v>
+      </c>
+      <c r="H1" t="s">
         <v>705</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2574,13 +3410,19 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G2" t="s">
+        <v>708</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2597,13 +3439,19 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>709</v>
+      </c>
+      <c r="G3" t="s">
+        <v>710</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2620,13 +3468,19 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
+        <v>711</v>
+      </c>
+      <c r="G4" t="s">
+        <v>712</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2643,13 +3497,19 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>711</v>
+      </c>
+      <c r="G5" t="s">
+        <v>714</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2666,13 +3526,19 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>713</v>
+      </c>
+      <c r="G6" t="s">
+        <v>716</v>
+      </c>
+      <c r="H6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2689,13 +3555,19 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>715</v>
+      </c>
+      <c r="G7" t="s">
+        <v>718</v>
+      </c>
+      <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2712,13 +3584,19 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
+        <v>717</v>
+      </c>
+      <c r="G8" t="s">
+        <v>720</v>
+      </c>
+      <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -2735,13 +3613,19 @@
         <v>32</v>
       </c>
       <c r="F9" t="s">
+        <v>717</v>
+      </c>
+      <c r="G9" t="s">
+        <v>722</v>
+      </c>
+      <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -2758,13 +3642,19 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
+        <v>717</v>
+      </c>
+      <c r="G10" t="s">
+        <v>724</v>
+      </c>
+      <c r="H10" t="s">
         <v>64</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2781,13 +3671,19 @@
         <v>70</v>
       </c>
       <c r="F11" t="s">
+        <v>719</v>
+      </c>
+      <c r="G11" t="s">
+        <v>726</v>
+      </c>
+      <c r="H11" t="s">
         <v>71</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -2804,13 +3700,19 @@
         <v>70</v>
       </c>
       <c r="F12" t="s">
+        <v>721</v>
+      </c>
+      <c r="G12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H12" t="s">
         <v>6</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -2827,13 +3729,19 @@
         <v>70</v>
       </c>
       <c r="F13" t="s">
+        <v>723</v>
+      </c>
+      <c r="G13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H13" t="s">
         <v>41</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -2850,13 +3758,19 @@
         <v>70</v>
       </c>
       <c r="F14" t="s">
+        <v>723</v>
+      </c>
+      <c r="G14" t="s">
+        <v>732</v>
+      </c>
+      <c r="H14" t="s">
         <v>71</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -2873,13 +3787,19 @@
         <v>70</v>
       </c>
       <c r="F15" t="s">
+        <v>725</v>
+      </c>
+      <c r="G15" t="s">
+        <v>734</v>
+      </c>
+      <c r="H15" t="s">
         <v>30</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -2896,13 +3816,19 @@
         <v>70</v>
       </c>
       <c r="F16" t="s">
+        <v>727</v>
+      </c>
+      <c r="G16" t="s">
+        <v>736</v>
+      </c>
+      <c r="H16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2919,13 +3845,19 @@
         <v>104</v>
       </c>
       <c r="F17" t="s">
+        <v>729</v>
+      </c>
+      <c r="G17" t="s">
+        <v>738</v>
+      </c>
+      <c r="H17" t="s">
         <v>71</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -2942,13 +3874,19 @@
         <v>104</v>
       </c>
       <c r="F18" t="s">
+        <v>731</v>
+      </c>
+      <c r="G18" t="s">
+        <v>740</v>
+      </c>
+      <c r="H18" t="s">
         <v>41</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -2965,13 +3903,19 @@
         <v>104</v>
       </c>
       <c r="F19" t="s">
+        <v>733</v>
+      </c>
+      <c r="G19" t="s">
+        <v>742</v>
+      </c>
+      <c r="H19" t="s">
         <v>116</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -2988,13 +3932,19 @@
         <v>104</v>
       </c>
       <c r="F20" t="s">
+        <v>735</v>
+      </c>
+      <c r="G20" t="s">
+        <v>744</v>
+      </c>
+      <c r="H20" t="s">
         <v>71</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -3011,13 +3961,19 @@
         <v>104</v>
       </c>
       <c r="F21" t="s">
+        <v>735</v>
+      </c>
+      <c r="G21" t="s">
+        <v>746</v>
+      </c>
+      <c r="H21" t="s">
         <v>6</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -3034,13 +3990,19 @@
         <v>104</v>
       </c>
       <c r="F22" t="s">
+        <v>737</v>
+      </c>
+      <c r="G22" t="s">
+        <v>748</v>
+      </c>
+      <c r="H22" t="s">
         <v>71</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -3057,13 +4019,19 @@
         <v>104</v>
       </c>
       <c r="F23" t="s">
+        <v>739</v>
+      </c>
+      <c r="G23" t="s">
+        <v>750</v>
+      </c>
+      <c r="H23" t="s">
         <v>139</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -3080,13 +4048,19 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
+        <v>741</v>
+      </c>
+      <c r="G24" t="s">
+        <v>752</v>
+      </c>
+      <c r="H24" t="s">
         <v>24</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -3103,13 +4077,19 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
+        <v>741</v>
+      </c>
+      <c r="G25" t="s">
+        <v>754</v>
+      </c>
+      <c r="H25" t="s">
         <v>149</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -3126,13 +4106,19 @@
         <v>47</v>
       </c>
       <c r="F26" t="s">
+        <v>743</v>
+      </c>
+      <c r="G26" t="s">
+        <v>756</v>
+      </c>
+      <c r="H26" t="s">
         <v>154</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>158</v>
       </c>
@@ -3149,13 +4135,19 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
+        <v>743</v>
+      </c>
+      <c r="G27" t="s">
+        <v>758</v>
+      </c>
+      <c r="H27" t="s">
         <v>160</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -3172,13 +4164,19 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
+        <v>745</v>
+      </c>
+      <c r="G28" t="s">
+        <v>760</v>
+      </c>
+      <c r="H28" t="s">
         <v>30</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>169</v>
       </c>
@@ -3195,13 +4193,19 @@
         <v>33</v>
       </c>
       <c r="F29" t="s">
+        <v>745</v>
+      </c>
+      <c r="G29" t="s">
+        <v>762</v>
+      </c>
+      <c r="H29" t="s">
         <v>19</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>171</v>
       </c>
@@ -3218,13 +4222,19 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
+        <v>747</v>
+      </c>
+      <c r="G30" t="s">
+        <v>764</v>
+      </c>
+      <c r="H30" t="s">
         <v>154</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>181</v>
       </c>
@@ -3241,13 +4251,19 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
+        <v>749</v>
+      </c>
+      <c r="G31" t="s">
+        <v>766</v>
+      </c>
+      <c r="H31" t="s">
         <v>160</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -3264,13 +4280,19 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
+        <v>751</v>
+      </c>
+      <c r="G32" t="s">
+        <v>768</v>
+      </c>
+      <c r="H32" t="s">
         <v>186</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -3287,13 +4309,19 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
+        <v>753</v>
+      </c>
+      <c r="G33" t="s">
+        <v>770</v>
+      </c>
+      <c r="H33" t="s">
         <v>52</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>197</v>
       </c>
@@ -3310,13 +4338,19 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
+        <v>755</v>
+      </c>
+      <c r="G34" t="s">
+        <v>772</v>
+      </c>
+      <c r="H34" t="s">
         <v>199</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>201</v>
       </c>
@@ -3333,13 +4367,19 @@
         <v>5</v>
       </c>
       <c r="F35" t="s">
+        <v>757</v>
+      </c>
+      <c r="G35" t="s">
+        <v>774</v>
+      </c>
+      <c r="H35" t="s">
         <v>203</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>205</v>
       </c>
@@ -3356,13 +4396,19 @@
         <v>104</v>
       </c>
       <c r="F36" t="s">
+        <v>757</v>
+      </c>
+      <c r="G36" t="s">
+        <v>776</v>
+      </c>
+      <c r="H36" t="s">
         <v>30</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>213</v>
       </c>
@@ -3379,13 +4425,19 @@
         <v>104</v>
       </c>
       <c r="F37" t="s">
+        <v>759</v>
+      </c>
+      <c r="G37" t="s">
+        <v>778</v>
+      </c>
+      <c r="H37" t="s">
         <v>186</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -3402,13 +4454,19 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
+        <v>759</v>
+      </c>
+      <c r="G38" t="s">
+        <v>780</v>
+      </c>
+      <c r="H38" t="s">
         <v>30</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>222</v>
       </c>
@@ -3425,13 +4483,19 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
+        <v>761</v>
+      </c>
+      <c r="G39" t="s">
+        <v>782</v>
+      </c>
+      <c r="H39" t="s">
         <v>41</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>225</v>
       </c>
@@ -3448,13 +4512,19 @@
         <v>104</v>
       </c>
       <c r="F40" t="s">
+        <v>761</v>
+      </c>
+      <c r="G40" t="s">
+        <v>784</v>
+      </c>
+      <c r="H40" t="s">
         <v>52</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>232</v>
       </c>
@@ -3471,13 +4541,19 @@
         <v>104</v>
       </c>
       <c r="F41" t="s">
+        <v>763</v>
+      </c>
+      <c r="G41" t="s">
+        <v>786</v>
+      </c>
+      <c r="H41" t="s">
         <v>19</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -3494,13 +4570,19 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
+        <v>765</v>
+      </c>
+      <c r="G42" t="s">
+        <v>788</v>
+      </c>
+      <c r="H42" t="s">
         <v>160</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>239</v>
       </c>
@@ -3517,13 +4599,19 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
+        <v>767</v>
+      </c>
+      <c r="G43" t="s">
+        <v>790</v>
+      </c>
+      <c r="H43" t="s">
         <v>64</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -3540,13 +4628,19 @@
         <v>4</v>
       </c>
       <c r="F44" t="s">
+        <v>769</v>
+      </c>
+      <c r="G44" t="s">
+        <v>792</v>
+      </c>
+      <c r="H44" t="s">
         <v>52</v>
       </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -3563,13 +4657,19 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
+        <v>771</v>
+      </c>
+      <c r="G45" t="s">
+        <v>794</v>
+      </c>
+      <c r="H45" t="s">
         <v>160</v>
       </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>253</v>
       </c>
@@ -3586,13 +4686,19 @@
         <v>4</v>
       </c>
       <c r="F46" t="s">
+        <v>773</v>
+      </c>
+      <c r="G46" t="s">
+        <v>796</v>
+      </c>
+      <c r="H46" t="s">
         <v>139</v>
       </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>256</v>
       </c>
@@ -3609,13 +4715,19 @@
         <v>70</v>
       </c>
       <c r="F47" t="s">
+        <v>775</v>
+      </c>
+      <c r="G47" t="s">
+        <v>798</v>
+      </c>
+      <c r="H47" t="s">
         <v>71</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>262</v>
       </c>
@@ -3632,13 +4744,19 @@
         <v>70</v>
       </c>
       <c r="F48" t="s">
+        <v>777</v>
+      </c>
+      <c r="G48" t="s">
+        <v>800</v>
+      </c>
+      <c r="H48" t="s">
         <v>19</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>264</v>
       </c>
@@ -3655,13 +4773,19 @@
         <v>70</v>
       </c>
       <c r="F49" t="s">
+        <v>779</v>
+      </c>
+      <c r="G49" t="s">
+        <v>802</v>
+      </c>
+      <c r="H49" t="s">
         <v>19</v>
       </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>270</v>
       </c>
@@ -3678,13 +4802,19 @@
         <v>70</v>
       </c>
       <c r="F50" t="s">
+        <v>779</v>
+      </c>
+      <c r="G50" t="s">
+        <v>804</v>
+      </c>
+      <c r="H50" t="s">
         <v>116</v>
       </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -3701,13 +4831,19 @@
         <v>33</v>
       </c>
       <c r="F51" t="s">
+        <v>781</v>
+      </c>
+      <c r="G51" t="s">
+        <v>806</v>
+      </c>
+      <c r="H51" t="s">
         <v>276</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>280</v>
       </c>
@@ -3724,13 +4860,19 @@
         <v>33</v>
       </c>
       <c r="F52" t="s">
+        <v>781</v>
+      </c>
+      <c r="G52" t="s">
+        <v>808</v>
+      </c>
+      <c r="H52" t="s">
         <v>6</v>
       </c>
-      <c r="G52" t="s">
+      <c r="I52" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>283</v>
       </c>
@@ -3747,13 +4889,19 @@
         <v>104</v>
       </c>
       <c r="F53" t="s">
+        <v>783</v>
+      </c>
+      <c r="G53" t="s">
+        <v>810</v>
+      </c>
+      <c r="H53" t="s">
         <v>154</v>
       </c>
-      <c r="G53" t="s">
+      <c r="I53" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>291</v>
       </c>
@@ -3770,13 +4918,19 @@
         <v>104</v>
       </c>
       <c r="F54" t="s">
+        <v>785</v>
+      </c>
+      <c r="G54" t="s">
+        <v>812</v>
+      </c>
+      <c r="H54" t="s">
         <v>19</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>293</v>
       </c>
@@ -3793,13 +4947,19 @@
         <v>32</v>
       </c>
       <c r="F55" t="s">
+        <v>787</v>
+      </c>
+      <c r="G55" t="s">
+        <v>814</v>
+      </c>
+      <c r="H55" t="s">
         <v>160</v>
       </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>300</v>
       </c>
@@ -3816,13 +4976,19 @@
         <v>32</v>
       </c>
       <c r="F56" t="s">
+        <v>789</v>
+      </c>
+      <c r="G56" t="s">
+        <v>816</v>
+      </c>
+      <c r="H56" t="s">
         <v>45</v>
       </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>303</v>
       </c>
@@ -3839,13 +5005,19 @@
         <v>123</v>
       </c>
       <c r="F57" t="s">
+        <v>791</v>
+      </c>
+      <c r="G57" t="s">
+        <v>818</v>
+      </c>
+      <c r="H57" t="s">
         <v>52</v>
       </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>310</v>
       </c>
@@ -3862,13 +5034,19 @@
         <v>123</v>
       </c>
       <c r="F58" t="s">
+        <v>793</v>
+      </c>
+      <c r="G58" t="s">
+        <v>820</v>
+      </c>
+      <c r="H58" t="s">
         <v>19</v>
       </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -3885,13 +5063,19 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
+        <v>795</v>
+      </c>
+      <c r="G59" t="s">
+        <v>822</v>
+      </c>
+      <c r="H59" t="s">
         <v>6</v>
       </c>
-      <c r="G59" t="s">
+      <c r="I59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>317</v>
       </c>
@@ -3908,13 +5092,19 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
+        <v>797</v>
+      </c>
+      <c r="G60" t="s">
+        <v>824</v>
+      </c>
+      <c r="H60" t="s">
         <v>319</v>
       </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>321</v>
       </c>
@@ -3931,13 +5121,19 @@
         <v>32</v>
       </c>
       <c r="F61" t="s">
+        <v>799</v>
+      </c>
+      <c r="G61" t="s">
+        <v>826</v>
+      </c>
+      <c r="H61" t="s">
         <v>30</v>
       </c>
-      <c r="G61" t="s">
+      <c r="I61" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>330</v>
       </c>
@@ -3954,13 +5150,19 @@
         <v>32</v>
       </c>
       <c r="F62" t="s">
+        <v>801</v>
+      </c>
+      <c r="G62" t="s">
+        <v>828</v>
+      </c>
+      <c r="H62" t="s">
         <v>19</v>
       </c>
-      <c r="G62" t="s">
+      <c r="I62" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>332</v>
       </c>
@@ -3977,13 +5179,19 @@
         <v>32</v>
       </c>
       <c r="F63" t="s">
+        <v>803</v>
+      </c>
+      <c r="G63" t="s">
+        <v>830</v>
+      </c>
+      <c r="H63" t="s">
         <v>186</v>
       </c>
-      <c r="G63" t="s">
+      <c r="I63" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>335</v>
       </c>
@@ -4000,13 +5208,19 @@
         <v>12</v>
       </c>
       <c r="F64" t="s">
+        <v>805</v>
+      </c>
+      <c r="G64" t="s">
+        <v>832</v>
+      </c>
+      <c r="H64" t="s">
         <v>199</v>
       </c>
-      <c r="G64" t="s">
+      <c r="I64" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>344</v>
       </c>
@@ -4023,13 +5237,19 @@
         <v>12</v>
       </c>
       <c r="F65" t="s">
+        <v>805</v>
+      </c>
+      <c r="G65" t="s">
+        <v>834</v>
+      </c>
+      <c r="H65" t="s">
         <v>186</v>
       </c>
-      <c r="G65" t="s">
+      <c r="I65" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>347</v>
       </c>
@@ -4046,13 +5266,19 @@
         <v>12</v>
       </c>
       <c r="F66" t="s">
+        <v>807</v>
+      </c>
+      <c r="G66" t="s">
+        <v>836</v>
+      </c>
+      <c r="H66" t="s">
         <v>116</v>
       </c>
-      <c r="G66" t="s">
+      <c r="I66" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>350</v>
       </c>
@@ -4069,13 +5295,19 @@
         <v>123</v>
       </c>
       <c r="F67" t="s">
+        <v>807</v>
+      </c>
+      <c r="G67" t="s">
+        <v>838</v>
+      </c>
+      <c r="H67" t="s">
         <v>160</v>
       </c>
-      <c r="G67" t="s">
+      <c r="I67" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>358</v>
       </c>
@@ -4092,13 +5324,19 @@
         <v>123</v>
       </c>
       <c r="F68" t="s">
+        <v>809</v>
+      </c>
+      <c r="G68" t="s">
+        <v>840</v>
+      </c>
+      <c r="H68" t="s">
         <v>116</v>
       </c>
-      <c r="G68" t="s">
+      <c r="I68" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>361</v>
       </c>
@@ -4115,13 +5353,19 @@
         <v>123</v>
       </c>
       <c r="F69" t="s">
+        <v>809</v>
+      </c>
+      <c r="G69" t="s">
+        <v>842</v>
+      </c>
+      <c r="H69" t="s">
         <v>64</v>
       </c>
-      <c r="G69" t="s">
+      <c r="I69" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -4138,13 +5382,19 @@
         <v>4</v>
       </c>
       <c r="F70" t="s">
+        <v>811</v>
+      </c>
+      <c r="G70" t="s">
+        <v>844</v>
+      </c>
+      <c r="H70" t="s">
         <v>6</v>
       </c>
-      <c r="G70" t="s">
+      <c r="I70" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>373</v>
       </c>
@@ -4161,13 +5411,19 @@
         <v>4</v>
       </c>
       <c r="F71" t="s">
+        <v>811</v>
+      </c>
+      <c r="G71" t="s">
+        <v>846</v>
+      </c>
+      <c r="H71" t="s">
         <v>19</v>
       </c>
-      <c r="G71" t="s">
+      <c r="I71" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>376</v>
       </c>
@@ -4184,13 +5440,19 @@
         <v>4</v>
       </c>
       <c r="F72" t="s">
+        <v>813</v>
+      </c>
+      <c r="G72" t="s">
+        <v>848</v>
+      </c>
+      <c r="H72" t="s">
         <v>45</v>
       </c>
-      <c r="G72" t="s">
+      <c r="I72" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>379</v>
       </c>
@@ -4207,13 +5469,19 @@
         <v>32</v>
       </c>
       <c r="F73" t="s">
+        <v>815</v>
+      </c>
+      <c r="G73" t="s">
+        <v>850</v>
+      </c>
+      <c r="H73" t="s">
         <v>199</v>
       </c>
-      <c r="G73" t="s">
+      <c r="I73" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>387</v>
       </c>
@@ -4230,13 +5498,19 @@
         <v>32</v>
       </c>
       <c r="F74" t="s">
+        <v>817</v>
+      </c>
+      <c r="G74" t="s">
+        <v>852</v>
+      </c>
+      <c r="H74" t="s">
         <v>64</v>
       </c>
-      <c r="G74" t="s">
+      <c r="I74" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>389</v>
       </c>
@@ -4253,13 +5527,19 @@
         <v>34</v>
       </c>
       <c r="F75" t="s">
+        <v>819</v>
+      </c>
+      <c r="G75" t="s">
+        <v>854</v>
+      </c>
+      <c r="H75" t="s">
         <v>154</v>
       </c>
-      <c r="G75" t="s">
+      <c r="I75" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>398</v>
       </c>
@@ -4276,13 +5556,19 @@
         <v>34</v>
       </c>
       <c r="F76" t="s">
+        <v>821</v>
+      </c>
+      <c r="G76" t="s">
+        <v>856</v>
+      </c>
+      <c r="H76" t="s">
         <v>19</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I76" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>401</v>
       </c>
@@ -4299,13 +5585,19 @@
         <v>34</v>
       </c>
       <c r="F77" t="s">
+        <v>823</v>
+      </c>
+      <c r="G77" t="s">
+        <v>858</v>
+      </c>
+      <c r="H77" t="s">
         <v>203</v>
       </c>
-      <c r="G77" t="s">
+      <c r="I77" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>404</v>
       </c>
@@ -4322,13 +5614,19 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
+        <v>825</v>
+      </c>
+      <c r="G78" t="s">
+        <v>860</v>
+      </c>
+      <c r="H78" t="s">
         <v>19</v>
       </c>
-      <c r="G78" t="s">
+      <c r="I78" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>410</v>
       </c>
@@ -4345,13 +5643,19 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
+        <v>827</v>
+      </c>
+      <c r="G79" t="s">
+        <v>862</v>
+      </c>
+      <c r="H79" t="s">
         <v>45</v>
       </c>
-      <c r="G79" t="s">
+      <c r="I79" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>413</v>
       </c>
@@ -4368,13 +5672,19 @@
         <v>32</v>
       </c>
       <c r="F80" t="s">
+        <v>829</v>
+      </c>
+      <c r="G80" t="s">
+        <v>864</v>
+      </c>
+      <c r="H80" t="s">
         <v>139</v>
       </c>
-      <c r="G80" t="s">
+      <c r="I80" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>421</v>
       </c>
@@ -4391,13 +5701,19 @@
         <v>32</v>
       </c>
       <c r="F81" t="s">
+        <v>831</v>
+      </c>
+      <c r="G81" t="s">
+        <v>866</v>
+      </c>
+      <c r="H81" t="s">
         <v>64</v>
       </c>
-      <c r="G81" t="s">
+      <c r="I81" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>384</v>
       </c>
@@ -4414,13 +5730,19 @@
         <v>47</v>
       </c>
       <c r="F82" t="s">
+        <v>833</v>
+      </c>
+      <c r="G82" t="s">
+        <v>868</v>
+      </c>
+      <c r="H82" t="s">
         <v>71</v>
       </c>
-      <c r="G82" t="s">
+      <c r="I82" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>429</v>
       </c>
@@ -4437,13 +5759,19 @@
         <v>47</v>
       </c>
       <c r="F83" t="s">
+        <v>835</v>
+      </c>
+      <c r="G83" t="s">
+        <v>870</v>
+      </c>
+      <c r="H83" t="s">
         <v>19</v>
       </c>
-      <c r="G83" t="s">
+      <c r="I83" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>431</v>
       </c>
@@ -4460,13 +5788,19 @@
         <v>104</v>
       </c>
       <c r="F84" t="s">
+        <v>835</v>
+      </c>
+      <c r="G84" t="s">
+        <v>872</v>
+      </c>
+      <c r="H84" t="s">
         <v>160</v>
       </c>
-      <c r="G84" t="s">
+      <c r="I84" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>436</v>
       </c>
@@ -4483,13 +5817,19 @@
         <v>104</v>
       </c>
       <c r="F85" t="s">
+        <v>837</v>
+      </c>
+      <c r="G85" t="s">
+        <v>874</v>
+      </c>
+      <c r="H85" t="s">
         <v>203</v>
       </c>
-      <c r="G85" t="s">
+      <c r="I85" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>443</v>
       </c>
@@ -4506,13 +5846,19 @@
         <v>104</v>
       </c>
       <c r="F86" t="s">
+        <v>839</v>
+      </c>
+      <c r="G86" t="s">
+        <v>876</v>
+      </c>
+      <c r="H86" t="s">
         <v>445</v>
       </c>
-      <c r="G86" t="s">
+      <c r="I86" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>288</v>
       </c>
@@ -4529,13 +5875,19 @@
         <v>32</v>
       </c>
       <c r="F87" t="s">
+        <v>841</v>
+      </c>
+      <c r="G87" t="s">
+        <v>878</v>
+      </c>
+      <c r="H87" t="s">
         <v>41</v>
       </c>
-      <c r="G87" t="s">
+      <c r="I87" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>453</v>
       </c>
@@ -4552,13 +5904,19 @@
         <v>32</v>
       </c>
       <c r="F88" t="s">
+        <v>843</v>
+      </c>
+      <c r="G88" t="s">
+        <v>880</v>
+      </c>
+      <c r="H88" t="s">
         <v>45</v>
       </c>
-      <c r="G88" t="s">
+      <c r="I88" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>456</v>
       </c>
@@ -4575,13 +5933,19 @@
         <v>5</v>
       </c>
       <c r="F89" t="s">
+        <v>845</v>
+      </c>
+      <c r="G89" t="s">
+        <v>882</v>
+      </c>
+      <c r="H89" t="s">
         <v>199</v>
       </c>
-      <c r="G89" t="s">
+      <c r="I89" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>462</v>
       </c>
@@ -4598,13 +5962,19 @@
         <v>5</v>
       </c>
       <c r="F90" t="s">
+        <v>847</v>
+      </c>
+      <c r="G90" t="s">
+        <v>884</v>
+      </c>
+      <c r="H90" t="s">
         <v>139</v>
       </c>
-      <c r="G90" t="s">
+      <c r="I90" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>464</v>
       </c>
@@ -4621,13 +5991,19 @@
         <v>32</v>
       </c>
       <c r="F91" t="s">
+        <v>849</v>
+      </c>
+      <c r="G91" t="s">
+        <v>886</v>
+      </c>
+      <c r="H91" t="s">
         <v>71</v>
       </c>
-      <c r="G91" t="s">
+      <c r="I91" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>470</v>
       </c>
@@ -4644,13 +6020,19 @@
         <v>32</v>
       </c>
       <c r="F92" t="s">
+        <v>851</v>
+      </c>
+      <c r="G92" t="s">
+        <v>888</v>
+      </c>
+      <c r="H92" t="s">
         <v>116</v>
       </c>
-      <c r="G92" t="s">
+      <c r="I92" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>210</v>
       </c>
@@ -4667,13 +6049,19 @@
         <v>339</v>
       </c>
       <c r="F93" t="s">
+        <v>853</v>
+      </c>
+      <c r="G93" t="s">
+        <v>890</v>
+      </c>
+      <c r="H93" t="s">
         <v>186</v>
       </c>
-      <c r="G93" t="s">
+      <c r="I93" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>481</v>
       </c>
@@ -4690,13 +6078,19 @@
         <v>339</v>
       </c>
       <c r="F94" t="s">
+        <v>853</v>
+      </c>
+      <c r="G94" t="s">
+        <v>892</v>
+      </c>
+      <c r="H94" t="s">
         <v>64</v>
       </c>
-      <c r="G94" t="s">
+      <c r="I94" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>483</v>
       </c>
@@ -4713,13 +6107,19 @@
         <v>339</v>
       </c>
       <c r="F95" t="s">
+        <v>855</v>
+      </c>
+      <c r="G95" t="s">
+        <v>894</v>
+      </c>
+      <c r="H95" t="s">
         <v>116</v>
       </c>
-      <c r="G95" t="s">
+      <c r="I95" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>486</v>
       </c>
@@ -4736,13 +6136,19 @@
         <v>34</v>
       </c>
       <c r="F96" t="s">
+        <v>855</v>
+      </c>
+      <c r="G96" t="s">
+        <v>896</v>
+      </c>
+      <c r="H96" t="s">
         <v>490</v>
       </c>
-      <c r="G96" t="s">
+      <c r="I96" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>492</v>
       </c>
@@ -4759,13 +6165,19 @@
         <v>12</v>
       </c>
       <c r="F97" t="s">
+        <v>857</v>
+      </c>
+      <c r="G97" t="s">
+        <v>898</v>
+      </c>
+      <c r="H97" t="s">
         <v>19</v>
       </c>
-      <c r="G97" t="s">
+      <c r="I97" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>499</v>
       </c>
@@ -4782,13 +6194,19 @@
         <v>12</v>
       </c>
       <c r="F98" t="s">
+        <v>857</v>
+      </c>
+      <c r="G98" t="s">
+        <v>900</v>
+      </c>
+      <c r="H98" t="s">
         <v>64</v>
       </c>
-      <c r="G98" t="s">
+      <c r="I98" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>502</v>
       </c>
@@ -4805,13 +6223,19 @@
         <v>32</v>
       </c>
       <c r="F99" t="s">
+        <v>859</v>
+      </c>
+      <c r="G99" t="s">
+        <v>902</v>
+      </c>
+      <c r="H99" t="s">
         <v>154</v>
       </c>
-      <c r="G99" t="s">
+      <c r="I99" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>509</v>
       </c>
@@ -4828,13 +6252,19 @@
         <v>32</v>
       </c>
       <c r="F100" t="s">
+        <v>861</v>
+      </c>
+      <c r="G100" t="s">
+        <v>904</v>
+      </c>
+      <c r="H100" t="s">
         <v>186</v>
       </c>
-      <c r="G100" t="s">
+      <c r="I100" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -4851,13 +6281,19 @@
         <v>47</v>
       </c>
       <c r="F101" t="s">
+        <v>863</v>
+      </c>
+      <c r="G101" t="s">
+        <v>906</v>
+      </c>
+      <c r="H101" t="s">
         <v>52</v>
       </c>
-      <c r="G101" t="s">
+      <c r="I101" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>514</v>
       </c>
@@ -4874,13 +6310,19 @@
         <v>47</v>
       </c>
       <c r="F102" t="s">
+        <v>865</v>
+      </c>
+      <c r="G102" t="s">
+        <v>908</v>
+      </c>
+      <c r="H102" t="s">
         <v>139</v>
       </c>
-      <c r="G102" t="s">
+      <c r="I102" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -4897,13 +6339,19 @@
         <v>4</v>
       </c>
       <c r="F103" t="s">
+        <v>865</v>
+      </c>
+      <c r="G103" t="s">
+        <v>910</v>
+      </c>
+      <c r="H103" t="s">
         <v>154</v>
       </c>
-      <c r="G103" t="s">
+      <c r="I103" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>521</v>
       </c>
@@ -4920,13 +6368,19 @@
         <v>4</v>
       </c>
       <c r="F104" t="s">
+        <v>867</v>
+      </c>
+      <c r="G104" t="s">
+        <v>912</v>
+      </c>
+      <c r="H104" t="s">
         <v>24</v>
       </c>
-      <c r="G104" t="s">
+      <c r="I104" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>524</v>
       </c>
@@ -4943,13 +6397,19 @@
         <v>33</v>
       </c>
       <c r="F105" t="s">
+        <v>869</v>
+      </c>
+      <c r="G105" t="s">
+        <v>914</v>
+      </c>
+      <c r="H105" t="s">
         <v>154</v>
       </c>
-      <c r="G105" t="s">
+      <c r="I105" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>418</v>
       </c>
@@ -4966,13 +6426,19 @@
         <v>33</v>
       </c>
       <c r="F106" t="s">
+        <v>871</v>
+      </c>
+      <c r="G106" t="s">
+        <v>916</v>
+      </c>
+      <c r="H106" t="s">
         <v>19</v>
       </c>
-      <c r="G106" t="s">
+      <c r="I106" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>530</v>
       </c>
@@ -4989,13 +6455,19 @@
         <v>123</v>
       </c>
       <c r="F107" t="s">
+        <v>873</v>
+      </c>
+      <c r="G107" t="s">
+        <v>918</v>
+      </c>
+      <c r="H107" t="s">
         <v>116</v>
       </c>
-      <c r="G107" t="s">
+      <c r="I107" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>534</v>
       </c>
@@ -5012,13 +6484,19 @@
         <v>123</v>
       </c>
       <c r="F108" t="s">
+        <v>875</v>
+      </c>
+      <c r="G108" t="s">
+        <v>920</v>
+      </c>
+      <c r="H108" t="s">
         <v>203</v>
       </c>
-      <c r="G108" t="s">
+      <c r="I108" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>538</v>
       </c>
@@ -5035,13 +6513,19 @@
         <v>104</v>
       </c>
       <c r="F109" t="s">
+        <v>877</v>
+      </c>
+      <c r="G109" t="s">
+        <v>922</v>
+      </c>
+      <c r="H109" t="s">
         <v>139</v>
       </c>
-      <c r="G109" t="s">
+      <c r="I109" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>542</v>
       </c>
@@ -5058,13 +6542,19 @@
         <v>5</v>
       </c>
       <c r="F110" t="s">
+        <v>879</v>
+      </c>
+      <c r="G110" t="s">
+        <v>924</v>
+      </c>
+      <c r="H110" t="s">
         <v>30</v>
       </c>
-      <c r="G110" t="s">
+      <c r="I110" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>546</v>
       </c>
@@ -5081,13 +6571,19 @@
         <v>5</v>
       </c>
       <c r="F111" t="s">
+        <v>881</v>
+      </c>
+      <c r="G111" t="s">
+        <v>926</v>
+      </c>
+      <c r="H111" t="s">
         <v>139</v>
       </c>
-      <c r="G111" t="s">
+      <c r="I111" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>166</v>
       </c>
@@ -5104,13 +6600,19 @@
         <v>33</v>
       </c>
       <c r="F112" t="s">
+        <v>881</v>
+      </c>
+      <c r="G112" t="s">
+        <v>928</v>
+      </c>
+      <c r="H112" t="s">
         <v>19</v>
       </c>
-      <c r="G112" t="s">
+      <c r="I112" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>553</v>
       </c>
@@ -5127,13 +6629,19 @@
         <v>33</v>
       </c>
       <c r="F113" t="s">
+        <v>883</v>
+      </c>
+      <c r="G113" t="s">
+        <v>930</v>
+      </c>
+      <c r="H113" t="s">
         <v>319</v>
       </c>
-      <c r="G113" t="s">
+      <c r="I113" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>556</v>
       </c>
@@ -5150,13 +6658,19 @@
         <v>104</v>
       </c>
       <c r="F114" t="s">
+        <v>883</v>
+      </c>
+      <c r="G114" t="s">
+        <v>932</v>
+      </c>
+      <c r="H114" t="s">
         <v>41</v>
       </c>
-      <c r="G114" t="s">
+      <c r="I114" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>560</v>
       </c>
@@ -5173,13 +6687,19 @@
         <v>4</v>
       </c>
       <c r="F115" t="s">
+        <v>885</v>
+      </c>
+      <c r="G115" t="s">
+        <v>934</v>
+      </c>
+      <c r="H115" t="s">
         <v>19</v>
       </c>
-      <c r="G115" t="s">
+      <c r="I115" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>368</v>
       </c>
@@ -5196,13 +6716,19 @@
         <v>104</v>
       </c>
       <c r="F116" t="s">
+        <v>887</v>
+      </c>
+      <c r="G116" t="s">
+        <v>936</v>
+      </c>
+      <c r="H116" t="s">
         <v>566</v>
       </c>
-      <c r="G116" t="s">
+      <c r="I116" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>568</v>
       </c>
@@ -5219,13 +6745,19 @@
         <v>32</v>
       </c>
       <c r="F117" t="s">
+        <v>889</v>
+      </c>
+      <c r="G117" t="s">
+        <v>938</v>
+      </c>
+      <c r="H117" t="s">
         <v>154</v>
       </c>
-      <c r="G117" t="s">
+      <c r="I117" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>572</v>
       </c>
@@ -5242,13 +6774,19 @@
         <v>32</v>
       </c>
       <c r="F118" t="s">
+        <v>891</v>
+      </c>
+      <c r="G118" t="s">
+        <v>940</v>
+      </c>
+      <c r="H118" t="s">
         <v>139</v>
       </c>
-      <c r="G118" t="s">
+      <c r="I118" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>576</v>
       </c>
@@ -5265,13 +6803,19 @@
         <v>32</v>
       </c>
       <c r="F119" t="s">
+        <v>893</v>
+      </c>
+      <c r="G119" t="s">
+        <v>942</v>
+      </c>
+      <c r="H119" t="s">
         <v>30</v>
       </c>
-      <c r="G119" t="s">
+      <c r="I119" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>393</v>
       </c>
@@ -5288,13 +6832,19 @@
         <v>32</v>
       </c>
       <c r="F120" t="s">
+        <v>893</v>
+      </c>
+      <c r="G120" t="s">
+        <v>944</v>
+      </c>
+      <c r="H120" t="s">
         <v>186</v>
       </c>
-      <c r="G120" t="s">
+      <c r="I120" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>582</v>
       </c>
@@ -5311,13 +6861,19 @@
         <v>32</v>
       </c>
       <c r="F121" t="s">
+        <v>895</v>
+      </c>
+      <c r="G121" t="s">
+        <v>946</v>
+      </c>
+      <c r="H121" t="s">
         <v>160</v>
       </c>
-      <c r="G121" t="s">
+      <c r="I121" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>586</v>
       </c>
@@ -5334,13 +6890,19 @@
         <v>32</v>
       </c>
       <c r="F122" t="s">
+        <v>897</v>
+      </c>
+      <c r="G122" t="s">
+        <v>948</v>
+      </c>
+      <c r="H122" t="s">
         <v>41</v>
       </c>
-      <c r="G122" t="s">
+      <c r="I122" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>589</v>
       </c>
@@ -5357,13 +6919,19 @@
         <v>12</v>
       </c>
       <c r="F123" t="s">
+        <v>899</v>
+      </c>
+      <c r="G123" t="s">
+        <v>950</v>
+      </c>
+      <c r="H123" t="s">
         <v>186</v>
       </c>
-      <c r="G123" t="s">
+      <c r="I123" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>593</v>
       </c>
@@ -5380,13 +6948,19 @@
         <v>70</v>
       </c>
       <c r="F124" t="s">
+        <v>901</v>
+      </c>
+      <c r="G124" t="s">
+        <v>952</v>
+      </c>
+      <c r="H124" t="s">
         <v>116</v>
       </c>
-      <c r="G124" t="s">
+      <c r="I124" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>597</v>
       </c>
@@ -5403,13 +6977,19 @@
         <v>11</v>
       </c>
       <c r="F125" t="s">
+        <v>903</v>
+      </c>
+      <c r="G125" t="s">
+        <v>955</v>
+      </c>
+      <c r="H125" t="s">
         <v>203</v>
       </c>
-      <c r="G125" t="s">
+      <c r="I125" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>601</v>
       </c>
@@ -5426,13 +7006,19 @@
         <v>47</v>
       </c>
       <c r="F126" t="s">
+        <v>905</v>
+      </c>
+      <c r="G126" t="s">
+        <v>956</v>
+      </c>
+      <c r="H126" t="s">
         <v>41</v>
       </c>
-      <c r="G126" t="s">
+      <c r="I126" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>604</v>
       </c>
@@ -5449,13 +7035,19 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
+        <v>907</v>
+      </c>
+      <c r="G127" t="s">
+        <v>957</v>
+      </c>
+      <c r="H127" t="s">
         <v>186</v>
       </c>
-      <c r="G127" t="s">
+      <c r="I127" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>608</v>
       </c>
@@ -5472,13 +7064,19 @@
         <v>70</v>
       </c>
       <c r="F128" t="s">
+        <v>909</v>
+      </c>
+      <c r="G128" t="s">
+        <v>958</v>
+      </c>
+      <c r="H128" t="s">
         <v>116</v>
       </c>
-      <c r="G128" t="s">
+      <c r="I128" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>611</v>
       </c>
@@ -5495,13 +7093,19 @@
         <v>104</v>
       </c>
       <c r="F129" t="s">
+        <v>911</v>
+      </c>
+      <c r="G129" t="s">
+        <v>959</v>
+      </c>
+      <c r="H129" t="s">
         <v>203</v>
       </c>
-      <c r="G129" t="s">
+      <c r="I129" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>615</v>
       </c>
@@ -5518,13 +7122,19 @@
         <v>32</v>
       </c>
       <c r="F130" t="s">
+        <v>911</v>
+      </c>
+      <c r="G130" t="s">
+        <v>960</v>
+      </c>
+      <c r="H130" t="s">
         <v>199</v>
       </c>
-      <c r="G130" t="s">
+      <c r="I130" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>618</v>
       </c>
@@ -5541,13 +7151,19 @@
         <v>32</v>
       </c>
       <c r="F131" t="s">
+        <v>913</v>
+      </c>
+      <c r="G131" t="s">
+        <v>961</v>
+      </c>
+      <c r="H131" t="s">
         <v>621</v>
       </c>
-      <c r="G131" t="s">
+      <c r="I131" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>192</v>
       </c>
@@ -5564,13 +7180,19 @@
         <v>32</v>
       </c>
       <c r="F132" t="s">
+        <v>915</v>
+      </c>
+      <c r="G132" t="s">
+        <v>962</v>
+      </c>
+      <c r="H132" t="s">
         <v>625</v>
       </c>
-      <c r="G132" t="s">
+      <c r="I132" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>627</v>
       </c>
@@ -5587,13 +7209,19 @@
         <v>104</v>
       </c>
       <c r="F133" t="s">
+        <v>915</v>
+      </c>
+      <c r="G133" t="s">
+        <v>963</v>
+      </c>
+      <c r="H133" t="s">
         <v>71</v>
       </c>
-      <c r="G133" t="s">
+      <c r="I133" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>630</v>
       </c>
@@ -5610,13 +7238,19 @@
         <v>104</v>
       </c>
       <c r="F134" t="s">
+        <v>917</v>
+      </c>
+      <c r="G134" t="s">
+        <v>964</v>
+      </c>
+      <c r="H134" t="s">
         <v>71</v>
       </c>
-      <c r="G134" t="s">
+      <c r="I134" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>633</v>
       </c>
@@ -5633,13 +7267,19 @@
         <v>32</v>
       </c>
       <c r="F135" t="s">
+        <v>919</v>
+      </c>
+      <c r="G135" t="s">
+        <v>965</v>
+      </c>
+      <c r="H135" t="s">
         <v>19</v>
       </c>
-      <c r="G135" t="s">
+      <c r="I135" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>635</v>
       </c>
@@ -5656,13 +7296,19 @@
         <v>47</v>
       </c>
       <c r="F136" t="s">
+        <v>921</v>
+      </c>
+      <c r="G136" t="s">
+        <v>966</v>
+      </c>
+      <c r="H136" t="s">
         <v>160</v>
       </c>
-      <c r="G136" t="s">
+      <c r="I136" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>637</v>
       </c>
@@ -5679,13 +7325,19 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
+        <v>923</v>
+      </c>
+      <c r="G137" t="s">
+        <v>967</v>
+      </c>
+      <c r="H137" t="s">
         <v>199</v>
       </c>
-      <c r="G137" t="s">
+      <c r="I137" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>644</v>
       </c>
@@ -5702,13 +7354,19 @@
         <v>104</v>
       </c>
       <c r="F138" t="s">
+        <v>925</v>
+      </c>
+      <c r="G138" t="s">
+        <v>968</v>
+      </c>
+      <c r="H138" t="s">
         <v>160</v>
       </c>
-      <c r="G138" t="s">
+      <c r="I138" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>176</v>
       </c>
@@ -5725,13 +7383,19 @@
         <v>34</v>
       </c>
       <c r="F139" t="s">
+        <v>927</v>
+      </c>
+      <c r="G139" t="s">
+        <v>969</v>
+      </c>
+      <c r="H139" t="s">
         <v>154</v>
       </c>
-      <c r="G139" t="s">
+      <c r="I139" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>650</v>
       </c>
@@ -5748,13 +7412,19 @@
         <v>34</v>
       </c>
       <c r="F140" t="s">
+        <v>929</v>
+      </c>
+      <c r="G140" t="s">
+        <v>970</v>
+      </c>
+      <c r="H140" t="s">
         <v>19</v>
       </c>
-      <c r="G140" t="s">
+      <c r="I140" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>653</v>
       </c>
@@ -5771,13 +7441,19 @@
         <v>34</v>
       </c>
       <c r="F141" t="s">
+        <v>931</v>
+      </c>
+      <c r="G141" t="s">
+        <v>971</v>
+      </c>
+      <c r="H141" t="s">
         <v>52</v>
       </c>
-      <c r="G141" t="s">
+      <c r="I141" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>657</v>
       </c>
@@ -5794,13 +7470,19 @@
         <v>34</v>
       </c>
       <c r="F142" t="s">
+        <v>933</v>
+      </c>
+      <c r="G142" t="s">
+        <v>972</v>
+      </c>
+      <c r="H142" t="s">
         <v>186</v>
       </c>
-      <c r="G142" t="s">
+      <c r="I142" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>660</v>
       </c>
@@ -5817,13 +7499,19 @@
         <v>34</v>
       </c>
       <c r="F143" t="s">
+        <v>935</v>
+      </c>
+      <c r="G143" t="s">
+        <v>973</v>
+      </c>
+      <c r="H143" t="s">
         <v>445</v>
       </c>
-      <c r="G143" t="s">
+      <c r="I143" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>664</v>
       </c>
@@ -5840,13 +7528,19 @@
         <v>104</v>
       </c>
       <c r="F144" t="s">
+        <v>935</v>
+      </c>
+      <c r="G144" t="s">
+        <v>974</v>
+      </c>
+      <c r="H144" t="s">
         <v>667</v>
       </c>
-      <c r="G144" t="s">
+      <c r="I144" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>669</v>
       </c>
@@ -5863,13 +7557,19 @@
         <v>11</v>
       </c>
       <c r="F145" t="s">
+        <v>937</v>
+      </c>
+      <c r="G145" t="s">
+        <v>975</v>
+      </c>
+      <c r="H145" t="s">
         <v>45</v>
       </c>
-      <c r="G145" t="s">
+      <c r="I145" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>673</v>
       </c>
@@ -5886,13 +7586,19 @@
         <v>47</v>
       </c>
       <c r="F146" t="s">
+        <v>939</v>
+      </c>
+      <c r="G146" t="s">
+        <v>976</v>
+      </c>
+      <c r="H146" t="s">
         <v>64</v>
       </c>
-      <c r="G146" t="s">
+      <c r="I146" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>677</v>
       </c>
@@ -5909,13 +7615,19 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
+        <v>941</v>
+      </c>
+      <c r="G147" t="s">
+        <v>977</v>
+      </c>
+      <c r="H147" t="s">
         <v>24</v>
       </c>
-      <c r="G147" t="s">
+      <c r="I147" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>680</v>
       </c>
@@ -5932,13 +7644,19 @@
         <v>683</v>
       </c>
       <c r="F148" t="s">
+        <v>943</v>
+      </c>
+      <c r="G148" t="s">
+        <v>978</v>
+      </c>
+      <c r="H148" t="s">
         <v>445</v>
       </c>
-      <c r="G148" t="s">
+      <c r="I148" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>685</v>
       </c>
@@ -5955,13 +7673,19 @@
         <v>683</v>
       </c>
       <c r="F149" t="s">
+        <v>945</v>
+      </c>
+      <c r="G149" t="s">
+        <v>979</v>
+      </c>
+      <c r="H149" t="s">
         <v>690</v>
       </c>
-      <c r="G149" t="s">
+      <c r="I149" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>687</v>
       </c>
@@ -5978,13 +7702,19 @@
         <v>683</v>
       </c>
       <c r="F150" t="s">
+        <v>947</v>
+      </c>
+      <c r="G150" t="s">
+        <v>980</v>
+      </c>
+      <c r="H150" t="s">
         <v>566</v>
       </c>
-      <c r="G150" t="s">
+      <c r="I150" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>693</v>
       </c>
@@ -6001,13 +7731,19 @@
         <v>12</v>
       </c>
       <c r="F151" t="s">
+        <v>949</v>
+      </c>
+      <c r="G151" t="s">
+        <v>981</v>
+      </c>
+      <c r="H151" t="s">
         <v>24</v>
       </c>
-      <c r="G151" t="s">
+      <c r="I151" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>697</v>
       </c>
@@ -6024,16 +7760,22 @@
         <v>12</v>
       </c>
       <c r="F152" t="s">
+        <v>951</v>
+      </c>
+      <c r="G152" t="s">
+        <v>982</v>
+      </c>
+      <c r="H152" t="s">
         <v>154</v>
       </c>
-      <c r="G152" t="s">
+      <c r="I152" t="s">
         <v>367</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:G153 A154:G154" numberStoredAsText="1"/>
+    <ignoredError sqref="H2:I152 A2:E154" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>